--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\space\work\projects\TruckFactorDataMining\DatasetGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCBC6107-9F06-401A-9ACB-896DBE8FC18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF677AFE-0367-412F-BEE5-AC8F84DAA612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B0F260CA-AB19-4095-8AEA-BE2C3D67B594}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="77">
   <si>
     <t>REPOSITORY</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
 </sst>
 </file>
@@ -312,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -327,19 +324,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -396,23 +380,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
@@ -426,7 +399,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -434,20 +409,12 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -458,15 +425,6 @@
   <dxfs count="13">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
@@ -480,48 +438,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -569,8 +492,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -610,8 +537,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -651,8 +582,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -692,8 +627,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -717,8 +656,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -742,8 +685,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -771,7 +718,9 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -781,8 +730,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -794,25 +747,85 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -829,21 +842,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE96568D-E26E-479C-91C0-FE6632282588}" name="Table1" displayName="Table1" ref="A1:H63" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE96568D-E26E-479C-91C0-FE6632282588}" name="Table1" displayName="Table1" ref="A1:H63" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H63" xr:uid="{AE96568D-E26E-479C-91C0-FE6632282588}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H63">
     <sortCondition ref="F2:F63" customList="Agree,Partially agree,Unclear,Disagree,Not answered"/>
     <sortCondition ref="G2:G63" customList="Agree,Partially agree,Unclear,Disagree,Not answered"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7A1D07A9-18BD-4EC4-AD53-F8782EDA9C88}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E73A03BF-C390-4D55-BEF6-3C33D8251F54}" name="REPOSITORY" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" xr3:uid="{B6EF5EB8-71A1-450A-B46D-5208A8BC6AB8}" name="ISSUE" dataDxfId="7" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{BCEAD1F0-13F6-4478-A981-1C0185D4B789}" name="TF" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{3F79CEB6-EBD4-479D-9D3C-DE5FFA7BB1EA}" name="ANSWERED" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{46B018A6-C07A-4E50-8CEE-D300A0D42185}" name="QUESTION A" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{68094956-A1BC-4079-86F3-BADCE90A917C}" name="QUESTION B" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{99A1BCEA-33EE-41D5-987D-BE53AA330BE2}" name="status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7A1D07A9-18BD-4EC4-AD53-F8782EDA9C88}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{E73A03BF-C390-4D55-BEF6-3C33D8251F54}" name="REPOSITORY" dataDxfId="6" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{B6EF5EB8-71A1-450A-B46D-5208A8BC6AB8}" name="ISSUE" dataDxfId="5" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{BCEAD1F0-13F6-4478-A981-1C0185D4B789}" name="TF" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3F79CEB6-EBD4-479D-9D3C-DE5FFA7BB1EA}" name="ANSWERED" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{46B018A6-C07A-4E50-8CEE-D300A0D42185}" name="QUESTION A" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{68094956-A1BC-4079-86F3-BADCE90A917C}" name="QUESTION B" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{99A1BCEA-33EE-41D5-987D-BE53AA330BE2}" name="status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1146,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C146D-98E9-4B30-8BE7-C598FEB064C1}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,35 +1176,35 @@
     <col min="7" max="7" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1212,13 +1225,15 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1239,13 +1254,15 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1266,11 +1283,13 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="H4" s="1"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1291,11 +1310,13 @@
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="H5" s="1"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1316,11 +1337,13 @@
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="H6" s="1"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1341,11 +1364,13 @@
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="H7" s="1"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1366,11 +1391,13 @@
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="H8" s="1"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1391,11 +1418,13 @@
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="H9" s="1"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1416,11 +1445,13 @@
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="H10" s="1"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1441,11 +1472,13 @@
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="H11" s="1"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1466,11 +1499,13 @@
       <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="H12" s="1"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1491,11 +1526,13 @@
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="H13" s="1"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1516,11 +1553,13 @@
       <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="H14" s="1"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>50</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1541,11 +1580,13 @@
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="H15" s="1"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1566,11 +1607,13 @@
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="H16" s="1"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1591,11 +1634,13 @@
       <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="H17" s="1"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1616,11 +1661,13 @@
       <c r="G18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="H18" s="1"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1641,11 +1688,13 @@
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="H19" s="1"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1666,10 +1715,12 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1691,10 +1742,12 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>48</v>
       </c>
@@ -1716,10 +1769,12 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>51</v>
       </c>
@@ -1741,10 +1796,12 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -1766,10 +1823,12 @@
       <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42</v>
       </c>
@@ -1791,10 +1850,12 @@
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>46</v>
       </c>
@@ -1816,10 +1877,12 @@
       <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>55</v>
       </c>
@@ -1841,10 +1904,12 @@
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>56</v>
       </c>
@@ -1866,10 +1931,12 @@
       <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>59</v>
       </c>
@@ -1891,10 +1958,12 @@
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H29" s="1"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>60</v>
       </c>
@@ -1916,10 +1985,12 @@
       <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>62</v>
       </c>
@@ -1941,10 +2012,12 @@
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>53</v>
       </c>
@@ -1966,10 +2039,12 @@
       <c r="G32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>8</v>
       </c>
@@ -1991,10 +2066,12 @@
       <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -2016,10 +2093,12 @@
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="10"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -2041,10 +2120,12 @@
       <c r="G35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H35" s="1"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="10"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2066,10 +2147,12 @@
       <c r="G36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H36" s="1"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>49</v>
       </c>
@@ -2091,10 +2174,12 @@
       <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H37" s="1"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -2116,10 +2201,12 @@
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H38" s="1"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>9</v>
       </c>
@@ -2141,10 +2228,12 @@
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H39" s="1"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>15</v>
       </c>
@@ -2166,10 +2255,12 @@
       <c r="G40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H40" s="1"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>18</v>
       </c>
@@ -2191,10 +2282,12 @@
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H41" s="1"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>19</v>
       </c>
@@ -2216,10 +2309,12 @@
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H42" s="1"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>20</v>
       </c>
@@ -2241,10 +2336,12 @@
       <c r="G43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="1"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -2266,9 +2363,12 @@
       <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H44" s="1"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>23</v>
       </c>
@@ -2290,9 +2390,12 @@
       <c r="G45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="1"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>24</v>
       </c>
@@ -2314,9 +2417,12 @@
       <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H46" s="1"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>30</v>
       </c>
@@ -2338,9 +2444,12 @@
       <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H47" s="1"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>34</v>
       </c>
@@ -2362,9 +2471,12 @@
       <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="1"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>39</v>
       </c>
@@ -2386,9 +2498,12 @@
       <c r="G49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="1"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>40</v>
       </c>
@@ -2410,9 +2525,12 @@
       <c r="G50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="1"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -2434,9 +2552,12 @@
       <c r="G51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="1"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>11</v>
       </c>
@@ -2458,9 +2579,12 @@
       <c r="G52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H52" s="1"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>13</v>
       </c>
@@ -2482,9 +2606,12 @@
       <c r="G53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H53" s="1"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>6</v>
       </c>
@@ -2506,9 +2633,12 @@
       <c r="G54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H54" s="1"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>14</v>
       </c>
@@ -2530,9 +2660,12 @@
       <c r="G55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="1"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>44</v>
       </c>
@@ -2554,9 +2687,12 @@
       <c r="G56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="1"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>25</v>
       </c>
@@ -2578,9 +2714,12 @@
       <c r="G57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H57" s="1"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2</v>
       </c>
@@ -2602,9 +2741,12 @@
       <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H58" s="1"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>27</v>
       </c>
@@ -2626,9 +2768,9 @@
       <c r="G59" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>28</v>
       </c>
@@ -2650,9 +2792,9 @@
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>41</v>
       </c>
@@ -2674,9 +2816,9 @@
       <c r="G61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>52</v>
       </c>
@@ -2698,34 +2840,34 @@
       <c r="G62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>7</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="10">
-        <v>7</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="11" t="s">
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Survey.xlsx
+++ b/Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\space\work\projects\TruckFactorDataMining\DatasetGeneration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF677AFE-0367-412F-BEE5-AC8F84DAA612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E26E2C-DCD8-4441-A04A-FBCA704B770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B0F260CA-AB19-4095-8AEA-BE2C3D67B594}"/>
   </bookViews>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1283,9 @@
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
       <c r="K4" s="10"/>
